--- a/data/output/FV2410_FV2404/UTILMD/55172.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55172.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9832" uniqueCount="603">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9853" uniqueCount="603">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1917,6 +1917,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U408" totalsRowShown="0">
+  <autoFilter ref="A1:U408"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2206,7 +2236,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U408"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -22717,5 +22750,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55172.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55172.xlsx
@@ -3548,7 +3548,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -4262,7 +4262,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -5716,7 +5716,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -5938,7 +5938,7 @@
         <v>584</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -6102,7 +6102,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -6750,7 +6750,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -6912,7 +6912,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -7070,7 +7070,7 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -7552,7 +7552,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -7656,7 +7656,7 @@
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -7818,7 +7818,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -8034,7 +8034,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -8138,7 +8138,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -8242,7 +8242,7 @@
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -8346,7 +8346,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -8504,7 +8504,7 @@
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -8608,7 +8608,7 @@
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -8772,7 +8772,7 @@
         <v>589</v>
       </c>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -8994,7 +8994,7 @@
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -9314,7 +9314,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -9788,7 +9788,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -9892,7 +9892,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -10054,7 +10054,7 @@
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -10270,7 +10270,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -10374,7 +10374,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -10756,7 +10756,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -11126,7 +11126,7 @@
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -11284,7 +11284,7 @@
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -11442,7 +11442,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -11546,7 +11546,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -11920,7 +11920,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -12024,7 +12024,7 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -12398,7 +12398,7 @@
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -12502,7 +12502,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -12660,7 +12660,7 @@
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -12764,7 +12764,7 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -12926,7 +12926,7 @@
       </c>
       <c r="K178" s="2"/>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -13142,7 +13142,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -13300,7 +13300,7 @@
       </c>
       <c r="K185" s="2"/>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -13458,7 +13458,7 @@
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -13562,7 +13562,7 @@
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -13724,7 +13724,7 @@
       </c>
       <c r="K193" s="2"/>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -13944,7 +13944,7 @@
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -14048,7 +14048,7 @@
       </c>
       <c r="K199" s="2"/>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -14206,7 +14206,7 @@
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -14310,7 +14310,7 @@
       </c>
       <c r="K204" s="2"/>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -14468,7 +14468,7 @@
       </c>
       <c r="K207" s="2"/>
       <c r="L207" s="4"/>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N207" s="2" t="s">
@@ -14572,7 +14572,7 @@
       </c>
       <c r="K209" s="2"/>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -14730,7 +14730,7 @@
       </c>
       <c r="K212" s="2"/>
       <c r="L212" s="4"/>
-      <c r="M212" s="2" t="s">
+      <c r="M212" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N212" s="2" t="s">
@@ -14834,7 +14834,7 @@
       </c>
       <c r="K214" s="2"/>
       <c r="L214" s="4"/>
-      <c r="M214" s="2" t="s">
+      <c r="M214" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N214" s="2" t="s">
@@ -14996,7 +14996,7 @@
       </c>
       <c r="K217" s="2"/>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N217" s="2" t="s">
@@ -15106,7 +15106,7 @@
       </c>
       <c r="K219" s="2"/>
       <c r="L219" s="4"/>
-      <c r="M219" s="2" t="s">
+      <c r="M219" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N219" s="2" t="s">
@@ -15270,7 +15270,7 @@
       </c>
       <c r="K222" s="2"/>
       <c r="L222" s="4"/>
-      <c r="M222" s="2" t="s">
+      <c r="M222" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N222" s="2" t="s">
@@ -15374,7 +15374,7 @@
       </c>
       <c r="K224" s="2"/>
       <c r="L224" s="4"/>
-      <c r="M224" s="2" t="s">
+      <c r="M224" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N224" s="2" t="s">
@@ -15536,7 +15536,7 @@
       </c>
       <c r="K227" s="2"/>
       <c r="L227" s="4"/>
-      <c r="M227" s="2" t="s">
+      <c r="M227" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N227" s="2" t="s">
@@ -15752,7 +15752,7 @@
       </c>
       <c r="K231" s="2"/>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -15964,7 +15964,7 @@
       </c>
       <c r="K235" s="2"/>
       <c r="L235" s="4"/>
-      <c r="M235" s="2" t="s">
+      <c r="M235" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N235" s="2" t="s">
@@ -16280,7 +16280,7 @@
       </c>
       <c r="K241" s="2"/>
       <c r="L241" s="4"/>
-      <c r="M241" s="2" t="s">
+      <c r="M241" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N241" s="2" t="s">
@@ -16438,7 +16438,7 @@
       </c>
       <c r="K244" s="2"/>
       <c r="L244" s="4"/>
-      <c r="M244" s="2" t="s">
+      <c r="M244" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N244" s="2" t="s">
@@ -16542,7 +16542,7 @@
       </c>
       <c r="K246" s="2"/>
       <c r="L246" s="4"/>
-      <c r="M246" s="2" t="s">
+      <c r="M246" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N246" s="2" t="s">
@@ -16704,7 +16704,7 @@
       </c>
       <c r="K249" s="2"/>
       <c r="L249" s="4"/>
-      <c r="M249" s="2" t="s">
+      <c r="M249" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N249" s="2" t="s">
@@ -17074,7 +17074,7 @@
       </c>
       <c r="K256" s="2"/>
       <c r="L256" s="4"/>
-      <c r="M256" s="2" t="s">
+      <c r="M256" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N256" s="2" t="s">
@@ -17178,7 +17178,7 @@
       </c>
       <c r="K258" s="2"/>
       <c r="L258" s="4"/>
-      <c r="M258" s="2" t="s">
+      <c r="M258" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N258" s="2" t="s">
@@ -17342,7 +17342,7 @@
         <v>593</v>
       </c>
       <c r="L261" s="4"/>
-      <c r="M261" s="2" t="s">
+      <c r="M261" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N261" s="2" t="s">
@@ -17502,7 +17502,7 @@
       </c>
       <c r="K264" s="2"/>
       <c r="L264" s="4"/>
-      <c r="M264" s="2" t="s">
+      <c r="M264" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N264" s="2" t="s">
@@ -18312,7 +18312,7 @@
       </c>
       <c r="K279" s="2"/>
       <c r="L279" s="4"/>
-      <c r="M279" s="2" t="s">
+      <c r="M279" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N279" s="2" t="s">
@@ -18472,7 +18472,7 @@
         <v>595</v>
       </c>
       <c r="L282" s="4"/>
-      <c r="M282" s="2" t="s">
+      <c r="M282" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N282" s="2" t="s">
@@ -18686,7 +18686,7 @@
       </c>
       <c r="K286" s="2"/>
       <c r="L286" s="4"/>
-      <c r="M286" s="2" t="s">
+      <c r="M286" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N286" s="2" t="s">
@@ -18844,7 +18844,7 @@
       </c>
       <c r="K289" s="2"/>
       <c r="L289" s="4"/>
-      <c r="M289" s="2" t="s">
+      <c r="M289" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N289" s="2" t="s">
@@ -19060,7 +19060,7 @@
       </c>
       <c r="K293" s="2"/>
       <c r="L293" s="4"/>
-      <c r="M293" s="2" t="s">
+      <c r="M293" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N293" s="2" t="s">
@@ -19322,7 +19322,7 @@
       </c>
       <c r="K298" s="2"/>
       <c r="L298" s="4"/>
-      <c r="M298" s="2" t="s">
+      <c r="M298" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N298" s="2" t="s">
@@ -19428,7 +19428,7 @@
         <v>596</v>
       </c>
       <c r="L300" s="4"/>
-      <c r="M300" s="2" t="s">
+      <c r="M300" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N300" s="2" t="s">
@@ -19646,7 +19646,7 @@
       </c>
       <c r="K304" s="2"/>
       <c r="L304" s="4"/>
-      <c r="M304" s="2" t="s">
+      <c r="M304" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N304" s="2" t="s">
@@ -19810,7 +19810,7 @@
         <v>598</v>
       </c>
       <c r="L307" s="4"/>
-      <c r="M307" s="2" t="s">
+      <c r="M307" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N307" s="2" t="s">
@@ -19976,7 +19976,7 @@
         <v>599</v>
       </c>
       <c r="L310" s="4"/>
-      <c r="M310" s="2" t="s">
+      <c r="M310" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N310" s="2" t="s">
@@ -20136,7 +20136,7 @@
       </c>
       <c r="K313" s="2"/>
       <c r="L313" s="4"/>
-      <c r="M313" s="2" t="s">
+      <c r="M313" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N313" s="2" t="s">
@@ -20356,7 +20356,7 @@
       </c>
       <c r="K317" s="2"/>
       <c r="L317" s="4"/>
-      <c r="M317" s="2" t="s">
+      <c r="M317" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N317" s="2" t="s">
@@ -20726,7 +20726,7 @@
       </c>
       <c r="K324" s="2"/>
       <c r="L324" s="4"/>
-      <c r="M324" s="2" t="s">
+      <c r="M324" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N324" s="2" t="s">
@@ -20884,7 +20884,7 @@
       </c>
       <c r="K327" s="2"/>
       <c r="L327" s="4"/>
-      <c r="M327" s="2" t="s">
+      <c r="M327" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N327" s="2" t="s">
@@ -21042,7 +21042,7 @@
       </c>
       <c r="K330" s="2"/>
       <c r="L330" s="4"/>
-      <c r="M330" s="2" t="s">
+      <c r="M330" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N330" s="2" t="s">
@@ -21358,7 +21358,7 @@
       </c>
       <c r="K336" s="2"/>
       <c r="L336" s="4"/>
-      <c r="M336" s="2" t="s">
+      <c r="M336" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N336" s="2" t="s">
@@ -21574,7 +21574,7 @@
       </c>
       <c r="K340" s="2"/>
       <c r="L340" s="4"/>
-      <c r="M340" s="2" t="s">
+      <c r="M340" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N340" s="2" t="s">
@@ -21678,7 +21678,7 @@
       </c>
       <c r="K342" s="2"/>
       <c r="L342" s="4"/>
-      <c r="M342" s="2" t="s">
+      <c r="M342" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N342" s="2" t="s">
@@ -21836,7 +21836,7 @@
       </c>
       <c r="K345" s="2"/>
       <c r="L345" s="4"/>
-      <c r="M345" s="2" t="s">
+      <c r="M345" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N345" s="2" t="s">
@@ -21942,7 +21942,7 @@
         <v>601</v>
       </c>
       <c r="L347" s="4"/>
-      <c r="M347" s="2" t="s">
+      <c r="M347" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N347" s="2" t="s">
@@ -22102,7 +22102,7 @@
       </c>
       <c r="K350" s="2"/>
       <c r="L350" s="4"/>
-      <c r="M350" s="2" t="s">
+      <c r="M350" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N350" s="2" t="s">
@@ -22426,7 +22426,7 @@
       </c>
       <c r="K356" s="2"/>
       <c r="L356" s="4"/>
-      <c r="M356" s="2" t="s">
+      <c r="M356" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N356" s="2" t="s">
@@ -22530,7 +22530,7 @@
       </c>
       <c r="K358" s="2"/>
       <c r="L358" s="4"/>
-      <c r="M358" s="2" t="s">
+      <c r="M358" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N358" s="2" t="s">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="K361" s="2"/>
       <c r="L361" s="4"/>
-      <c r="M361" s="2" t="s">
+      <c r="M361" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N361" s="2" t="s">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="K363" s="2"/>
       <c r="L363" s="4"/>
-      <c r="M363" s="2" t="s">
+      <c r="M363" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N363" s="2" t="s">
@@ -22950,7 +22950,7 @@
       </c>
       <c r="K366" s="2"/>
       <c r="L366" s="4"/>
-      <c r="M366" s="2" t="s">
+      <c r="M366" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N366" s="2" t="s">
@@ -23324,7 +23324,7 @@
       </c>
       <c r="K373" s="2"/>
       <c r="L373" s="4"/>
-      <c r="M373" s="2" t="s">
+      <c r="M373" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N373" s="2" t="s">
@@ -23428,7 +23428,7 @@
       </c>
       <c r="K375" s="2"/>
       <c r="L375" s="4"/>
-      <c r="M375" s="2" t="s">
+      <c r="M375" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N375" s="2" t="s">
@@ -23586,7 +23586,7 @@
       </c>
       <c r="K378" s="2"/>
       <c r="L378" s="4"/>
-      <c r="M378" s="2" t="s">
+      <c r="M378" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N378" s="2" t="s">
@@ -23690,7 +23690,7 @@
       </c>
       <c r="K380" s="2"/>
       <c r="L380" s="4"/>
-      <c r="M380" s="2" t="s">
+      <c r="M380" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N380" s="2" t="s">
@@ -23848,7 +23848,7 @@
       </c>
       <c r="K383" s="2"/>
       <c r="L383" s="4"/>
-      <c r="M383" s="2" t="s">
+      <c r="M383" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N383" s="2" t="s">
@@ -24006,7 +24006,7 @@
       </c>
       <c r="K386" s="2"/>
       <c r="L386" s="4"/>
-      <c r="M386" s="2" t="s">
+      <c r="M386" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N386" s="2" t="s">
@@ -24214,7 +24214,7 @@
       </c>
       <c r="K390" s="2"/>
       <c r="L390" s="4"/>
-      <c r="M390" s="2" t="s">
+      <c r="M390" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N390" s="2" t="s">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="K393" s="2"/>
       <c r="L393" s="4"/>
-      <c r="M393" s="2" t="s">
+      <c r="M393" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N393" s="2" t="s">
@@ -24480,7 +24480,7 @@
       </c>
       <c r="K395" s="2"/>
       <c r="L395" s="4"/>
-      <c r="M395" s="2" t="s">
+      <c r="M395" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N395" s="2" t="s">
@@ -24638,7 +24638,7 @@
       </c>
       <c r="K398" s="2"/>
       <c r="L398" s="4"/>
-      <c r="M398" s="2" t="s">
+      <c r="M398" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N398" s="2" t="s">
@@ -24800,7 +24800,7 @@
       </c>
       <c r="K401" s="2"/>
       <c r="L401" s="4"/>
-      <c r="M401" s="2" t="s">
+      <c r="M401" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N401" s="2" t="s">
@@ -24904,7 +24904,7 @@
       </c>
       <c r="K403" s="2"/>
       <c r="L403" s="4"/>
-      <c r="M403" s="2" t="s">
+      <c r="M403" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N403" s="2" t="s">
@@ -25064,7 +25064,7 @@
       </c>
       <c r="K406" s="2"/>
       <c r="L406" s="4"/>
-      <c r="M406" s="2" t="s">
+      <c r="M406" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N406" s="2"/>
